--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.805197596549988</v>
+        <v>1.750253319740295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251105934381485</v>
+        <v>0.2857291996479034</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.582188129425049</v>
+        <v>1.454620480537415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3729144036769867</v>
+        <v>0.4330001175403595</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.393576860427856</v>
+        <v>1.307323813438416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4641053378582001</v>
+        <v>0.4997039139270782</v>
       </c>
     </row>
     <row r="5">
@@ -490,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.294674277305603</v>
+        <v>1.213003039360046</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5074366927146912</v>
+        <v>0.5375317931175232</v>
       </c>
     </row>
     <row r="6">
@@ -501,10 +501,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.216591238975525</v>
+        <v>1.13625431060791</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5371834635734558</v>
+        <v>0.5697168111801147</v>
       </c>
     </row>
     <row r="7">
@@ -512,10 +512,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.158568739891052</v>
+        <v>1.073856711387634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5615312457084656</v>
+        <v>0.592671275138855</v>
       </c>
     </row>
     <row r="8">
@@ -523,10 +523,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.102302193641663</v>
+        <v>1.009236574172974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5804799795150757</v>
+        <v>0.6203629374504089</v>
       </c>
     </row>
     <row r="9">
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.050329804420471</v>
+        <v>0.9534943699836731</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6027029752731323</v>
+        <v>0.6413668394088745</v>
       </c>
     </row>
     <row r="10">
@@ -545,10 +545,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9970504641532898</v>
+        <v>0.8850251436233521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6224180459976196</v>
+        <v>0.6667943596839905</v>
       </c>
     </row>
     <row r="11">
@@ -556,10 +556,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9420331716537476</v>
+        <v>0.8313866257667542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6450590491294861</v>
+        <v>0.6888431906700134</v>
       </c>
     </row>
     <row r="12">
@@ -567,54 +567,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8940385580062866</v>
+        <v>0.7686541676521301</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6631021499633789</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8464952111244202</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6784283518791199</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.7950929999351501</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.6997805833816528</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.7443364262580872</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7176843285560608</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.7002522349357605</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.7370859384536743</v>
+        <v>0.7113448977470398</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +601,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5358038450821956</v>
+        <v>0.5468096962942324</v>
       </c>
     </row>
   </sheetData>
@@ -711,25 +667,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>537</v>
+        <v>454</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="H2" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -739,25 +695,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -767,25 +723,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="F4" t="n">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="G4" t="n">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="H4" t="n">
-        <v>138</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -795,25 +751,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
-        <v>1323</v>
+        <v>1378</v>
       </c>
       <c r="F5" t="n">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="G5" t="n">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="H5" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -823,25 +779,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F6" t="n">
-        <v>636</v>
+        <v>565</v>
       </c>
       <c r="G6" t="n">
-        <v>185</v>
+        <v>351</v>
       </c>
       <c r="H6" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -851,25 +807,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="E7" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F7" t="n">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="G7" t="n">
-        <v>483</v>
+        <v>701</v>
       </c>
       <c r="H7" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -879,25 +835,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="E8" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="n">
         <v>29</v>
       </c>
-      <c r="G8" t="n">
-        <v>24</v>
-      </c>
       <c r="H8" t="n">
-        <v>521</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
